--- a/doc/SA cert/Reviewer/2차 서류심사 피드백_TranAnhTai_Park.xlsx
+++ b/doc/SA cert/Reviewer/2차 서류심사 피드백_TranAnhTai_Park.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LGE_Projects\인증심사\2023\3차\Tran Anh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\codefun\doc\SA cert\Reviewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53E528-10F8-4B5F-907A-9B06D58A3895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51195" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51195" windowHeight="28800"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="99">
   <si>
     <t>평가항목</t>
   </si>
@@ -51,10 +50,6 @@
   </si>
   <si>
     <t>대응 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대응 comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -347,12 +342,49 @@
   </si>
   <si>
     <t>When reviewing the design document, I added some comments as secondary feedback. Please refer to the comments and prepare well for the offline interview. Thank you.</t>
+  </si>
+  <si>
+    <t>Previous title seems too specific that other audiences from differrent domains are hard to understand. So I would like to change the title for more astracted level to be easialy unstanstable.</t>
+  </si>
+  <si>
+    <t>Yes, it is right.</t>
+  </si>
+  <si>
+    <t>Yes, I omit method of serialization for simplicity's sake. SOME/IP serialization is provided internally by SOME/IP library, which is an open source. This project uses SOME/IP and Binder as an external component for IPC communication, therefore I omit its internal design such as serialization method for simplicity.</t>
+  </si>
+  <si>
+    <t>Circles present for task-based events. When task-based events needed to handle, they are delivered asynchronously to Dynamic Task Executor. These events are queued and be processed by worker threads in thread pool of Dynamic Task Executor.</t>
+  </si>
+  <si>
+    <t>I change layer definition in Figure 15 of new document (version 1.8) to more easily understandable. Business Logic Layer is a synchronous layer. Request Layer(previously queueing layer) and I/O Layer are asynchronous layers. In Figure 17, layers are desribed in NAD Manager design.
+I am assumming that your meaning about "process" is meantioned about process and thread in OS concept. If so, Components on business logic layer are not independent processes, they are just divided by separate functionalities. All of them run on same process in physical view (e.g a NAD Manager process).
+NAD Manager uses MCP wrapper(MQTT wrapper) and SOME/IP. While NAD Relay uses Binder IPC and SOME/IP IPC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I changed to new figure 17 and 18 in new document. It avoid misunderstanding about circular relationship. </t>
+  </si>
+  <si>
+    <t>Thank you very much for your comments. I modified some parts based on your comments.</t>
+  </si>
+  <si>
+    <t>대응 comment</t>
+  </si>
+  <si>
+    <t>Thank you for your suggestion. 
+I change it to performance. Please see on section 6.2.1 of new document about this change. Now thre is only one QA for performance (REQ-QA-01), but there are two strategies to satisfy this QA (using Task Executor and Async Helper).
+REQ-QA-05 is to handle this issue (tracking response for async operation). Please check in section 6.4.3. 
+Current Dynamic Task Executor uses a normal queue(FIFO) to store task-based events. Because current OEM requirement doesn't specify priority for differrent message types. If they require as a Change Request, Dynamic Task Executor can use a priority queue to handle requests based on priority.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For example 1, please see on 
+REQ-QA-03 (Detect service fault) and section 6.4.1 how to handle it. When service is shutdown because of abnormal operation, health monitor(systemd) restarts it to run as a new instance.
+For example 2, NAD and BAM communication is within an internal ECU and based on ethernet. So actually the signal is rarely distorted by noise like wireless communication. To reduce performance overhead, OEM decided to not apply security between BAM and NAD. Instead, just applying security between ICON (vehicle) and backend communication by using TLS protocol.    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -475,7 +507,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -530,9 +562,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -809,17 +844,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
@@ -832,35 +867,35 @@
     <col min="9" max="9" width="19.42578125" style="7" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" style="4" customWidth="1"/>
     <col min="11" max="11" width="50.140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" style="7" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="B2" s="10" t="s">
+    <row r="3" spans="1:12">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="B3" s="10" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -868,27 +903,27 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1">
+      <c r="A6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1">
-      <c r="A6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>2</v>
@@ -897,504 +932,526 @@
         <v>3</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="J6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="38.25">
+        <v>7</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="36">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="25.5">
+    <row r="8" spans="1:12" ht="24">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3">
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="38.25">
+    <row r="9" spans="1:12" ht="36">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3">
         <v>6</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="165.75">
+    <row r="10" spans="1:12" ht="300">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="3">
         <v>11</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="38.25">
+        <v>76</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="48">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3">
         <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" s="5"/>
     </row>
-    <row r="12" spans="1:11" ht="153">
+    <row r="12" spans="1:12" ht="240">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3">
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="38.25">
+        <v>80</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="36">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3">
         <v>15</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:11" ht="38.25">
+    <row r="14" spans="1:12" ht="36">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3">
         <v>22</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:11" ht="89.25">
+    <row r="15" spans="1:12" ht="96">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3">
         <v>26</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="1:11" ht="165.75">
+    <row r="16" spans="1:12" ht="168">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="38.25">
+    <row r="17" spans="1:11" ht="48">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3">
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3">
         <v>47</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="1:11" ht="25.5">
+    <row r="18" spans="1:11" ht="48">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="3">
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18" s="3"/>
+      <c r="H18" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="I18" s="6"/>
       <c r="J18" s="3"/>
       <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="3">
         <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="3"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="38.25">
+    <row r="20" spans="1:11" ht="60">
       <c r="A20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" s="3">
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="3">
         <v>26</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="I20" s="6"/>
       <c r="J20" s="3"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="48">
       <c r="A21" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="3">
         <v>31</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="3"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="51">
+    <row r="22" spans="1:11" ht="168">
       <c r="A22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" s="3">
         <v>15</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="I22" s="6"/>
       <c r="J22" s="3"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="51">
+    <row r="23" spans="1:11" ht="60">
       <c r="A23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="3">
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="3">
         <v>32</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="3"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="38.25">
+    <row r="24" spans="1:11" ht="36">
       <c r="A24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="3">
         <v>17</v>
@@ -1403,10 +1460,12 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="12" t="s">
+        <v>95</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="3"/>
       <c r="K24" s="5"/>
@@ -2069,22 +2128,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D166:D180" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D166:D180">
       <formula1>"피드백종류"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A76" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A76">
       <formula1>심사차수</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C78" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C78">
       <formula1>평가항목</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D165" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D165">
       <formula1>피드백종류</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G100" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G100">
       <formula1>대응방법</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J136" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J136">
       <formula1>최종피드백</formula1>
     </dataValidation>
   </dataValidations>
@@ -2097,7 +2156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2115,24 +2174,24 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2140,82 +2199,82 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="C9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7">
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/doc/SA cert/Reviewer/2차 서류심사 피드백_TranAnhTai_Park.xlsx
+++ b/doc/SA cert/Reviewer/2차 서류심사 피드백_TranAnhTai_Park.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\codefun\doc\SA cert\Reviewer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taikt/taikt/code/codefun/doc/SA cert/Reviewer/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E225E6B-EB45-7E44-BB1A-6217C52643FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51195" windowHeight="28800"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feedback" sheetId="1" r:id="rId1"/>
@@ -344,47 +345,47 @@
     <t>When reviewing the design document, I added some comments as secondary feedback. Please refer to the comments and prepare well for the offline interview. Thank you.</t>
   </si>
   <si>
-    <t>Previous title seems too specific that other audiences from differrent domains are hard to understand. So I would like to change the title for more astracted level to be easialy unstanstable.</t>
-  </si>
-  <si>
     <t>Yes, it is right.</t>
   </si>
   <si>
     <t>Yes, I omit method of serialization for simplicity's sake. SOME/IP serialization is provided internally by SOME/IP library, which is an open source. This project uses SOME/IP and Binder as an external component for IPC communication, therefore I omit its internal design such as serialization method for simplicity.</t>
   </si>
   <si>
-    <t>Circles present for task-based events. When task-based events needed to handle, they are delivered asynchronously to Dynamic Task Executor. These events are queued and be processed by worker threads in thread pool of Dynamic Task Executor.</t>
-  </si>
-  <si>
-    <t>I change layer definition in Figure 15 of new document (version 1.8) to more easily understandable. Business Logic Layer is a synchronous layer. Request Layer(previously queueing layer) and I/O Layer are asynchronous layers. In Figure 17, layers are desribed in NAD Manager design.
-I am assumming that your meaning about "process" is meantioned about process and thread in OS concept. If so, Components on business logic layer are not independent processes, they are just divided by separate functionalities. All of them run on same process in physical view (e.g a NAD Manager process).
-NAD Manager uses MCP wrapper(MQTT wrapper) and SOME/IP. While NAD Relay uses Binder IPC and SOME/IP IPC.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I changed to new figure 17 and 18 in new document. It avoid misunderstanding about circular relationship. </t>
-  </si>
-  <si>
-    <t>Thank you very much for your comments. I modified some parts based on your comments.</t>
-  </si>
-  <si>
     <t>대응 comment</t>
   </si>
   <si>
+    <t xml:space="preserve">With Example 1, please see on 
+REQ-QA-03 (Detect service fault) and section 6.4.1 about solution to handle it. When service is shutdown because of abnormal operation, health monitor(systemd) restarts it to run as a new instance.
+With Example 2, NAD and BAM communication is within an internal ECU and based on ethernet. So actually the signal is rarely distorted by noise like wireless communication case and connection by ethernet within a ECU is quite stable. To reduce performance overhead, OEM decided to not apply security between BAM and NAD. Instead, they just require to apply security between ICON (vehicle) and backend communication by using TLS protocol.    </t>
+  </si>
+  <si>
+    <t>Previous title seems too specific that other audiences from differrent domains are hard to understand. So I would like to change the title for more astracted level to be easily understandable.</t>
+  </si>
+  <si>
+    <t>Circles present task-based events. When task-based events needed to handle, they are delivered asynchronously to Dynamic Task Executor. These events are queued and be processed by worker threads in thread pool of Dynamic Task Executor.</t>
+  </si>
+  <si>
+    <t>I change layer definition as in Figure 15 of new document (version 1.8) to more easily understandable. Business Logic Layer is a synchronous layer. Request Layer(previously queueing layer) and I/O Layer are asynchronous layers. In Figure 17, specific layers are desribed in NAD Manager design.
+I am assumming that your question about "process" is about process and thread in OS concept. If so, Components on business logic layer are not independent processes, they are just divided by separate functionalities. All of them run on same process in physical view (e.g a NAD Manager process).
+NAD Manager uses MCP wrapper(MQTT wrapper) and SOME/IP. While NAD Relay uses Binder IPC and SOME/IP IPC. I updated figures correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I changed to new figure 17 and 18 in new document. It avoids misunderstanding about circular relationship. </t>
+  </si>
+  <si>
+    <t>Thank you very much for your detailed comments. I modified some parts based on your comments.</t>
+  </si>
+  <si>
     <t>Thank you for your suggestion. 
-I change it to performance. Please see on section 6.2.1 of new document about this change. Now thre is only one QA for performance (REQ-QA-01), but there are two strategies to satisfy this QA (using Task Executor and Async Helper).
+I change QA type to performance. Please see on section 6.2.1 of new document about this change. Now there is only one QA for performance (REQ-QA-01), but there are two strategies to satisfy this QA (using Task Executor to run tasks in multiple threads and Async Helper to execute request asynchronously).
 REQ-QA-05 is to handle this issue (tracking response for async operation). Please check in section 6.4.3. 
-Current Dynamic Task Executor uses a normal queue(FIFO) to store task-based events. Because current OEM requirement doesn't specify priority for differrent message types. If they require as a Change Request, Dynamic Task Executor can use a priority queue to handle requests based on priority.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For example 1, please see on 
-REQ-QA-03 (Detect service fault) and section 6.4.1 how to handle it. When service is shutdown because of abnormal operation, health monitor(systemd) restarts it to run as a new instance.
-For example 2, NAD and BAM communication is within an internal ECU and based on ethernet. So actually the signal is rarely distorted by noise like wireless communication. To reduce performance overhead, OEM decided to not apply security between BAM and NAD. Instead, just applying security between ICON (vehicle) and backend communication by using TLS protocol.    </t>
+Current Dynamic Task Executor uses a normal queue(FIFO) to store task-based events. FIFO queue is because current OEM requirement doesn't specify priority for differrent message types. If OEM requires in future as a Change Request for prioritizing messages, Dynamic Task Executor can use a priority queue to handle requests based on priority.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -556,14 +557,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -844,31 +845,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="66.7109375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="67.85546875" style="14" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="50.140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="34.7109375" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="7"/>
+    <col min="3" max="3" width="31.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="66.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="67.83203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="7" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="50.1640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -894,25 +895,25 @@
       <c r="C3" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="16" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1">
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="16">
       <c r="A6" s="8" t="s">
         <v>32</v>
       </c>
@@ -935,7 +936,7 @@
         <v>33</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>5</v>
@@ -946,11 +947,11 @@
       <c r="K6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="36">
+      <c r="L6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="48">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -980,8 +981,9 @@
         <v>77</v>
       </c>
       <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="24">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="32">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1007,8 +1009,9 @@
       <c r="I8" s="6"/>
       <c r="J8" s="3"/>
       <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="36">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="48">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1038,8 +1041,9 @@
         <v>77</v>
       </c>
       <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="300">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="365">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1071,8 +1075,8 @@
       <c r="K10" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>97</v>
+      <c r="L10" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="48">
@@ -1105,8 +1109,9 @@
         <v>77</v>
       </c>
       <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="240">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="320">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
@@ -1134,11 +1139,11 @@
       <c r="K12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L12" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="36">
+      <c r="L12" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="48">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1166,8 +1171,9 @@
         <v>77</v>
       </c>
       <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="36">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="48">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1197,8 +1203,9 @@
         <v>77</v>
       </c>
       <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="96">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="112">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1226,8 +1233,9 @@
         <v>77</v>
       </c>
       <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" ht="168">
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="192">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1257,6 +1265,7 @@
         <v>77</v>
       </c>
       <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="48">
       <c r="A17" s="3" t="s">
@@ -1308,13 +1317,13 @@
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="3"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="16">
       <c r="A19" s="3" t="s">
         <v>82</v>
       </c>
@@ -1335,13 +1344,13 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="3"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" ht="60">
+    <row r="20" spans="1:11" ht="64">
       <c r="A20" s="3" t="s">
         <v>82</v>
       </c>
@@ -1362,13 +1371,13 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="3"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" ht="48">
+    <row r="21" spans="1:11" ht="62" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>82</v>
       </c>
@@ -1389,13 +1398,13 @@
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="3"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" ht="168">
+    <row r="22" spans="1:11" ht="192">
       <c r="A22" s="3" t="s">
         <v>82</v>
       </c>
@@ -1416,13 +1425,13 @@
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="3"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" ht="60">
+    <row r="23" spans="1:11" ht="64">
       <c r="A23" s="3" t="s">
         <v>82</v>
       </c>
@@ -1443,13 +1452,13 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="3"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" ht="36">
+    <row r="24" spans="1:11" ht="48">
       <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
@@ -1464,7 +1473,7 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="3"/>
@@ -2128,22 +2137,22 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D166:D180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D166:D180" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"피드백종류"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A76" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>심사차수</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C78" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>평가항목</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D165">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D165" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>피드백종류</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G100" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>대응방법</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J136" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>최종피드백</formula1>
     </dataValidation>
   </dataValidations>
@@ -2156,20 +2165,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="74.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
